--- a/documentation/userstories.xlsx
+++ b/documentation/userstories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Donkerdom\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0053AA71-C51B-4308-93D7-4EFECA244C05}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B60C281-5A55-4BE7-B7E7-F978A86EAE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96679C00-EDDE-4BBA-ACB4-18141557BA47}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="99" uniqueCount="59">
   <si>
     <t>Priority</t>
   </si>
@@ -59,21 +59,12 @@
     <t>Arnoud v. Br.</t>
   </si>
   <si>
-    <t>Als &lt;Type Gebruiker&gt;,     wil ik dat &lt;een doel&gt;,      zodat &lt;primaire reden&gt;</t>
-  </si>
-  <si>
     <t>Must Have</t>
   </si>
   <si>
-    <t>Als beheerder, had ik graag dat er een stem-systeem bij komt voor de hoge raad, zodat er op relevante topics, ideeën, klachten of verzoeken gestemd kan worden. Al heeft dit minder prioriteit.</t>
-  </si>
-  <si>
     <t>Should Have</t>
   </si>
   <si>
-    <t>Als beheerder, wil ik ook dat ieder onderwerp 3 stemmen nodig heeft van leden uit de hoge raad om verwerkt te kunnen worden, zodat leden voor of tegen kunnen stemmen.</t>
-  </si>
-  <si>
     <t>Cornelisen v. Z.</t>
   </si>
   <si>
@@ -89,62 +80,852 @@
     <t>Jordy Kerkluyder</t>
   </si>
   <si>
-    <t>Als mede-eigenaar, wil ik dat de website gemaakt word met HTML, CSS, PHP en een beetje Javascript, zodat de vereniging een fijne en moderne website krijgt.</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> Als lid, wil ik dat de website toegankelijk wordt op allerlei apparaten, zodat leden op meerdere apparaten met de website kunnen werken.</t>
-  </si>
-  <si>
-    <t>Als lid, wil ik dat leden hun eigen account kunnen sluiten, zodat de beheerder dat niet hoeft te doen.</t>
-  </si>
-  <si>
-    <t>Als beheerder, wil ik dat ieder lid andere rechten kan krijgen, zodat alleen leden met de juiste bevoegdheid overeenkomende taken kunnen uitvoeren.</t>
-  </si>
-  <si>
-    <t>Als beheerder, wil ik een eenvoudige admin interface, zodat ik overzichtelijk met gegevens kan werken.</t>
-  </si>
-  <si>
-    <t>Als beheerder, wil ik gedeeltelijk informatie over leden in een tabel kunnen zien, zodat ik het snel door kan spitten.</t>
-  </si>
-  <si>
-    <t>Als beheerder, wil ik kunnen filteren op leden, zodat ik gegevens sneller kan vinden.</t>
-  </si>
-  <si>
-    <t>Als bestuurslid, wil ik een beveiligd login en registratiesysteem, zodat de toegang ontzegt kan worden voor onbevoegden.</t>
-  </si>
-  <si>
-    <t>Als bestuurslid, wil ik dat het inlogsysteem gebruik maakt van 'hashing' en 'salting' op wachtwoorden, zodat deze afgeschermd kunnen worden.</t>
-  </si>
-  <si>
-    <t>Als bestuurslid, wil ik dat de website informatie kan valideren en saneren, zodat er geen kwaadaardige code kan worden uitgevoerd.</t>
-  </si>
-  <si>
-    <t>Als IT'er, wil ik een PDO database verbinding dat rekening houdt met 'charset injections' en server-load, zodat processen efficiënter kunnen worden verwerkt.</t>
-  </si>
-  <si>
-    <t>Als mede-eigenaar, wil ik dat leden documenten kunnen uploaden, zodat bestanden makkelijk via het internet geraadpleegd kunnen worden.</t>
-  </si>
-  <si>
-    <t>Als beheerder, had ik graag een Management Omgeving, zodat het ledenbestand en onze papieren administratie geautomatiseerd kunnen worden.</t>
-  </si>
-  <si>
-    <t>Als lid, zou ik modulaire back-end functies willen, zodat boilerplate code kan worden verminderd. Maar dit is geen vereiste.</t>
-  </si>
-  <si>
-    <t>Als IT'er, wil ik een database voor alle gegevens hebben, zodat er een centrale plek is voor onze ledenadministratie.</t>
-  </si>
-  <si>
-    <t>Als beheerder, wil ik een homepage voor onze nieuwe website, zodat mensen de website kunnen bezoeken.</t>
-  </si>
-  <si>
-    <t>Als beheerder, had ik graag een Leden Omgeving, zodat leden hun account kunnen aanpassen, of kunnen stemmen.</t>
+    <t>Als beheerder,</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als &lt;Type Gebruiker&gt;, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">    wil ik dat &lt;een doel&gt;,</t>
+  </si>
+  <si>
+    <t>zodat &lt;primaire reden&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als beheerder, </t>
+  </si>
+  <si>
+    <t>zodat ik overzichtelijk met gegevens kan werken.</t>
+  </si>
+  <si>
+    <t>zodat mensen de website kunnen bezoeken.</t>
+  </si>
+  <si>
+    <t>zodat de toegang ontzegt kan worden voor onbevoegden.</t>
+  </si>
+  <si>
+    <t>zodat er geen kwaadaardige code kan worden uitgevoerd.</t>
+  </si>
+  <si>
+    <t>zodat er een centrale plek is voor onze ledenadministratie.</t>
+  </si>
+  <si>
+    <t>zodat leden op meerdere apparaten met de website kunnen werken.</t>
+  </si>
+  <si>
+    <t>zodat de vereniging een fijne en moderne website krijgt.</t>
+  </si>
+  <si>
+    <t>zodat de beheerder dat niet hoeft te doen.</t>
+  </si>
+  <si>
+    <t>zodat boilerplate code kan worden verminderd. Maar dit is geen vereiste.</t>
+  </si>
+  <si>
+    <t>zodat bestanden makkelijk via het internet geraadpleegd kunnen worden.</t>
+  </si>
+  <si>
+    <t>zodat ik een overzicht heb.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> zodat ik gegevens sneller kan vinden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">had ik graag een stem-systeem voor de hoge raad, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als bestuurslid, </t>
+  </si>
+  <si>
+    <t>zodat deze beter beschermd kunnen worden.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als mede-eigenaar, </t>
+  </si>
+  <si>
+    <t>zodat processen efficiënter kunnen lopen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Als mede-eigenaar, </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Als IT-lid, </t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">had ik graag een </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Management Omgeving</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">had ik graag een </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Leden Omgeving</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wil ik dat ieder lid </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Rechten</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> kan krijgen, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">zie ik graag een simpele </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Admin Interface</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">zie ik graag </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Leden </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>en</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">gegevens terug in een </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Informatie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tabel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wil ik in de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tabel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> kunnen </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Filteren</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> op leden,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wil ik een </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Homepage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> voor onze nieuwe website, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wil ik een </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Login en Registratiesysteem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wil ik dat </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Wachtwoorden</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ge-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hashed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> en ge-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Salt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> worden, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wil ik dat de website informatie kan </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Valideren </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>en</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Saneren</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wil ik een </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Database</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> voor alle gegevens hebben, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wil ik dat de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Website Toegankelijk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> wordt op </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Diverse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Apparaten</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wil ik dat de website gemaakt word met </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HTML, CSS, PHP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> en een beetje</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Javascript</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wil ik een </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PDO-Database verbinding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tegen </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'charset encoding injections'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> en</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> server-load</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>wil ik dat leden hun eigen</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Account</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> kunnen </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sluiten</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">zou ik </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Modulaire</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> back-end</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Functies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> willen zien, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wil ik dat leden </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Documenten</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> kunnen </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Uploaden</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+  </si>
+  <si>
+    <t>zodat er op topics of verzoeken gestemd kunnen worden.</t>
+  </si>
+  <si>
+    <t>zodat alleen leden met de juiste bevoegdheid taken kunnen uitvoeren.</t>
+  </si>
+  <si>
+    <t>zodat leden hun account kunnen aanpassen of topics zien.</t>
+  </si>
+  <si>
+    <t>zodat ons ledenadministratie geautomatiseerd kan worden.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -191,6 +972,14 @@
     <font>
       <sz val="12"/>
       <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -259,15 +1048,6 @@
         <color indexed="64"/>
       </left>
       <right/>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -284,6 +1064,15 @@
       <top style="thin">
         <color indexed="64"/>
       </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -310,9 +1099,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -325,22 +1111,16 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -349,16 +1129,23 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standaard" xfId="0" builtinId="0"/>
@@ -676,31 +1463,31 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C21" sqref="C21:D21"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="17.5546875" customWidth="1"/>
     <col min="2" max="2" width="5" customWidth="1"/>
-    <col min="3" max="3" width="88.44140625" customWidth="1"/>
-    <col min="4" max="4" width="73.33203125" customWidth="1"/>
-    <col min="5" max="5" width="11.21875" customWidth="1"/>
-    <col min="6" max="6" width="8.77734375" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" customWidth="1"/>
+    <col min="4" max="4" width="73" customWidth="1"/>
+    <col min="5" max="5" width="61.33203125" customWidth="1"/>
+    <col min="6" max="6" width="17.77734375" customWidth="1"/>
     <col min="8" max="8" width="20.77734375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="16" t="s">
+      <c r="A1" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="16"/>
-      <c r="C1" s="16"/>
-      <c r="D1" s="16"/>
-      <c r="E1" s="16"/>
-      <c r="F1" s="16"/>
-      <c r="G1" s="16"/>
-      <c r="H1" s="2"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
+      <c r="F1" s="22"/>
+      <c r="G1" s="22"/>
+      <c r="H1" s="22"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -715,22 +1502,26 @@
       <c r="B2" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="14" t="s">
-        <v>7</v>
-      </c>
-      <c r="D2" s="15"/>
+      <c r="C2" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="E2" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="F2" s="4" t="s">
+      <c r="G2" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="G2" s="4" t="s">
+      <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
+      <c r="I2" s="19"/>
+      <c r="J2" s="19"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -743,20 +1534,24 @@
       <c r="B3" s="3">
         <v>1</v>
       </c>
-      <c r="C3" s="12" t="s">
-        <v>29</v>
-      </c>
-      <c r="D3" s="13"/>
+      <c r="C3" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D3" s="11" t="s">
+        <v>38</v>
+      </c>
       <c r="E3" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F3" s="5">
+        <v>58</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G3" s="5">
         <v>1</v>
       </c>
-      <c r="G3" s="5"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="20"/>
+      <c r="J3" s="20"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -769,18 +1564,24 @@
       <c r="B4" s="3">
         <v>2</v>
       </c>
-      <c r="C4" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D4" s="13"/>
+      <c r="C4" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D4" s="11" t="s">
+        <v>39</v>
+      </c>
       <c r="E4" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="5">
+        <v>57</v>
+      </c>
+      <c r="F4" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="5">
         <v>1</v>
       </c>
-      <c r="G4" s="5"/>
-      <c r="I4" s="1"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="20"/>
+      <c r="J4" s="20"/>
     </row>
     <row r="5" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -789,18 +1590,24 @@
       <c r="B5" s="3">
         <v>3</v>
       </c>
-      <c r="C5" s="12" t="s">
-        <v>20</v>
-      </c>
-      <c r="D5" s="13"/>
+      <c r="C5" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="D5" s="11" t="s">
+        <v>40</v>
+      </c>
       <c r="E5" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F5" s="5">
+        <v>56</v>
+      </c>
+      <c r="F5" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G5" s="5">
         <v>1</v>
       </c>
-      <c r="G5" s="5"/>
-      <c r="I5" s="1"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="20"/>
+      <c r="J5" s="20"/>
     </row>
     <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -809,18 +1616,24 @@
       <c r="B6" s="3">
         <v>4</v>
       </c>
-      <c r="C6" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="D6" s="13"/>
+      <c r="C6" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D6" s="11" t="s">
+        <v>41</v>
+      </c>
       <c r="E6" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F6" s="5">
+        <v>19</v>
+      </c>
+      <c r="F6" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G6" s="5">
         <v>1</v>
       </c>
-      <c r="G6" s="5"/>
-      <c r="I6" s="1"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
     </row>
     <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
@@ -829,18 +1642,24 @@
       <c r="B7" s="3">
         <v>5</v>
       </c>
-      <c r="C7" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D7" s="13"/>
+      <c r="C7" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D7" s="11" t="s">
+        <v>42</v>
+      </c>
       <c r="E7" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F7" s="5">
+        <v>29</v>
+      </c>
+      <c r="F7" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G7" s="5">
         <v>1</v>
       </c>
-      <c r="G7" s="5"/>
-      <c r="I7" s="1"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
     </row>
     <row r="8" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -849,18 +1668,24 @@
       <c r="B8" s="3">
         <v>6</v>
       </c>
-      <c r="C8" s="12" t="s">
-        <v>23</v>
-      </c>
-      <c r="D8" s="13"/>
+      <c r="C8" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D8" s="11" t="s">
+        <v>43</v>
+      </c>
       <c r="E8" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F8" s="5">
+        <v>30</v>
+      </c>
+      <c r="F8" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G8" s="5">
         <v>1</v>
       </c>
-      <c r="G8" s="5"/>
-      <c r="I8" s="1"/>
+      <c r="H8" s="5"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
     </row>
     <row r="9" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
@@ -869,17 +1694,24 @@
       <c r="B9" s="3">
         <v>7</v>
       </c>
-      <c r="C9" s="12" t="s">
-        <v>32</v>
-      </c>
-      <c r="D9" s="13"/>
+      <c r="C9" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>44</v>
+      </c>
       <c r="E9" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F9" s="5">
+        <v>20</v>
+      </c>
+      <c r="F9" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G9" s="5">
         <v>1</v>
       </c>
-      <c r="G9" s="5"/>
+      <c r="H9" s="5"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20"/>
     </row>
     <row r="10" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -888,330 +1720,379 @@
       <c r="B10" s="3">
         <v>8</v>
       </c>
-      <c r="C10" s="12" t="s">
-        <v>9</v>
-      </c>
-      <c r="D10" s="13"/>
+      <c r="C10" s="5" t="s">
+        <v>18</v>
+      </c>
+      <c r="D10" s="11" t="s">
+        <v>31</v>
+      </c>
       <c r="E10" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="5">
+        <v>55</v>
+      </c>
+      <c r="F10" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G10" s="5">
         <v>1</v>
       </c>
-      <c r="G10" s="5"/>
+      <c r="H10" s="5"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20"/>
     </row>
     <row r="11" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B11" s="3">
-        <v>9</v>
-      </c>
-      <c r="C11" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="D11" s="13"/>
-      <c r="E11" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F11" s="5">
-        <v>1</v>
-      </c>
+      <c r="A11" s="3"/>
+      <c r="B11" s="3"/>
+      <c r="C11" s="5"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="5"/>
+      <c r="F11" s="5"/>
       <c r="G11" s="5"/>
+      <c r="H11" s="5"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
     </row>
     <row r="12" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B12" s="3">
         <v>10</v>
       </c>
-      <c r="C12" s="12" t="s">
-        <v>24</v>
-      </c>
-      <c r="D12" s="13"/>
+      <c r="C12" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D12" s="11" t="s">
+        <v>45</v>
+      </c>
       <c r="E12" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="5">
+        <v>21</v>
+      </c>
+      <c r="F12" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G12" s="5">
         <v>1</v>
       </c>
-      <c r="G12" s="5"/>
+      <c r="H12" s="5"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
     </row>
     <row r="13" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B13" s="3">
         <v>11</v>
       </c>
-      <c r="C13" s="12" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="13"/>
+      <c r="C13" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D13" s="11" t="s">
+        <v>46</v>
+      </c>
       <c r="E13" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="5">
+        <v>33</v>
+      </c>
+      <c r="F13" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G13" s="5">
         <v>1</v>
       </c>
-      <c r="G13" s="5"/>
+      <c r="H13" s="5"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
     </row>
     <row r="14" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B14" s="3">
         <v>12</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>26</v>
-      </c>
-      <c r="D14" s="13"/>
+      <c r="C14" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D14" s="11" t="s">
+        <v>47</v>
+      </c>
       <c r="E14" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F14" s="5">
+        <v>22</v>
+      </c>
+      <c r="F14" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G14" s="5">
         <v>1</v>
       </c>
-      <c r="G14" s="5"/>
-      <c r="H14" s="6"/>
+      <c r="H14" s="5"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20"/>
     </row>
     <row r="15" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="B15" s="3">
         <v>13</v>
       </c>
-      <c r="C15" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="D15" s="13"/>
+      <c r="C15" s="5" t="s">
+        <v>32</v>
+      </c>
+      <c r="D15" s="11" t="s">
+        <v>48</v>
+      </c>
       <c r="E15" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="5">
+        <v>23</v>
+      </c>
+      <c r="F15" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G15" s="5">
         <v>1</v>
       </c>
-      <c r="G15" s="5"/>
+      <c r="H15" s="5"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
     </row>
     <row r="16" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="B16" s="3">
         <v>14</v>
       </c>
-      <c r="C16" s="12" t="s">
-        <v>18</v>
-      </c>
-      <c r="D16" s="13"/>
+      <c r="C16" s="5" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="11" t="s">
+        <v>49</v>
+      </c>
       <c r="E16" s="5" t="s">
-        <v>8</v>
-      </c>
-      <c r="F16" s="5">
+        <v>24</v>
+      </c>
+      <c r="F16" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G16" s="5">
         <v>1</v>
       </c>
-      <c r="G16" s="5"/>
-    </row>
-    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="17" t="s">
-        <v>13</v>
+      <c r="H16" s="5"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+    </row>
+    <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="14" t="s">
+        <v>10</v>
       </c>
       <c r="B17" s="3">
         <v>15</v>
       </c>
-      <c r="C17" s="18" t="s">
-        <v>17</v>
-      </c>
-      <c r="D17" s="19"/>
-      <c r="E17" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="F17" s="20">
+      <c r="C17" s="16" t="s">
+        <v>34</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" s="16" t="s">
+        <v>7</v>
+      </c>
+      <c r="G17" s="16">
         <v>1</v>
       </c>
-      <c r="G17" s="5"/>
-    </row>
-    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A18" s="10" t="s">
-        <v>15</v>
+      <c r="H17" s="5"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+    </row>
+    <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="B18" s="3">
         <v>16</v>
       </c>
-      <c r="C18" s="12" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" s="13"/>
-      <c r="E18" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="F18" s="5">
+      <c r="C18" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="E18" s="5" t="s">
+        <v>35</v>
+      </c>
+      <c r="F18" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="G18" s="5">
         <v>1</v>
       </c>
-      <c r="G18" s="5"/>
-    </row>
-    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A19" s="10" t="s">
-        <v>15</v>
+      <c r="H18" s="5"/>
+      <c r="I18" s="20"/>
+      <c r="J18" s="20"/>
+    </row>
+    <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="B19" s="3">
         <v>17</v>
       </c>
-      <c r="C19" s="12" t="s">
-        <v>19</v>
-      </c>
-      <c r="D19" s="13"/>
+      <c r="C19" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="11" t="s">
+        <v>52</v>
+      </c>
       <c r="E19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F19" s="5">
+        <v>26</v>
+      </c>
+      <c r="F19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G19" s="5">
         <v>1</v>
       </c>
-      <c r="G19" s="5"/>
-    </row>
-    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A20" s="10" t="s">
-        <v>15</v>
+      <c r="H19" s="5"/>
+      <c r="I19" s="20"/>
+      <c r="J19" s="20"/>
+    </row>
+    <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="9" t="s">
+        <v>12</v>
       </c>
       <c r="B20" s="3">
         <v>18</v>
       </c>
-      <c r="C20" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="D20" s="13"/>
+      <c r="C20" s="5" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="11" t="s">
+        <v>53</v>
+      </c>
       <c r="E20" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="F20" s="5">
+        <v>27</v>
+      </c>
+      <c r="F20" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="G20" s="5">
         <v>1</v>
       </c>
-      <c r="G20" s="5"/>
-    </row>
-    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H20" s="5"/>
+      <c r="I20" s="20"/>
+      <c r="J20" s="20"/>
+    </row>
+    <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="B21" s="3">
         <v>19</v>
       </c>
-      <c r="C21" s="12" t="s">
+      <c r="C21" s="5" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="E21" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="D21" s="13"/>
-      <c r="E21" s="5" t="s">
-        <v>14</v>
-      </c>
-      <c r="F21" s="5">
+      <c r="F21" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="G21" s="5">
         <v>1</v>
       </c>
-      <c r="G21" s="5"/>
-    </row>
-    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="H21" s="5"/>
+      <c r="I21" s="20"/>
+      <c r="J21" s="20"/>
+    </row>
+    <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
       <c r="B22" s="3"/>
-      <c r="C22" s="12"/>
-      <c r="D22" s="13"/>
+      <c r="C22" s="10"/>
+      <c r="D22" s="5"/>
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="C23" s="22"/>
-      <c r="D23" s="22"/>
-    </row>
-    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="11"/>
-      <c r="D24" s="11"/>
+      <c r="H22" s="21"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="C23" s="17"/>
+      <c r="D23" s="17"/>
+    </row>
+    <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="6"/>
+      <c r="C24" s="18"/>
+      <c r="D24" s="18"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="11"/>
-      <c r="D25" s="11"/>
+      <c r="F24" s="6"/>
+    </row>
+    <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="6"/>
+      <c r="C25" s="18"/>
+      <c r="D25" s="18"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
-    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A26" s="7"/>
+    <row r="26" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="6"/>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1"/>
     </row>
-    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A27" s="7"/>
+    <row r="27" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="6"/>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
     </row>
-    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A28" s="9"/>
+    <row r="28" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="8"/>
       <c r="C28" s="1"/>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1"/>
     </row>
-    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A29" s="7"/>
+    <row r="29" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="6"/>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1"/>
     </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1"/>
     </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1"/>
     </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="D32" s="8"/>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="D32" s="7"/>
     </row>
     <row r="33" spans="4:4" x14ac:dyDescent="0.3">
-      <c r="D33" s="8"/>
+      <c r="D33" s="7"/>
     </row>
   </sheetData>
-  <mergeCells count="25">
-    <mergeCell ref="C23:D23"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
-    <mergeCell ref="A1:G1"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="C5:D5"/>
-    <mergeCell ref="C6:D6"/>
+  <mergeCells count="4">
     <mergeCell ref="C24:D24"/>
     <mergeCell ref="C25:D25"/>
-    <mergeCell ref="C22:D22"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C18:D18"/>
-    <mergeCell ref="C19:D19"/>
-    <mergeCell ref="C20:D20"/>
-    <mergeCell ref="C21:D21"/>
-    <mergeCell ref="C7:D7"/>
-    <mergeCell ref="C8:D8"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="C12:D12"/>
-    <mergeCell ref="C13:D13"/>
+    <mergeCell ref="C23:D23"/>
+    <mergeCell ref="A1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/documentation/userstories.xlsx
+++ b/documentation/userstories.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\Donkerdom\documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B60C281-5A55-4BE7-B7E7-F978A86EAE9F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{12871A57-B370-4CEC-AC17-F0877ED10660}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{96679C00-EDDE-4BBA-ACB4-18141557BA47}"/>
   </bookViews>
@@ -231,6 +231,668 @@
   </si>
   <si>
     <r>
+      <t xml:space="preserve">zie ik graag </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Leden </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>en</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">gegevens terug in een </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Informatie</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tabel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wil ik in de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Tabel</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> kunnen </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Filteren</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> op leden,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wil ik een </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Homepage</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> voor onze nieuwe website, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wil ik een </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Login en Registratiesysteem</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wil ik dat </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Wachtwoorden</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> ge-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Hashed</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> en ge-</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Salt</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> worden, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wil ik dat de website informatie kan </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">Valideren </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>en</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Saneren</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wil ik een </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Database</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> voor alle gegevens hebben, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wil ik dat de </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Website Toegankelijk</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> wordt op </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Diverse</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Apparaten</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wil ik dat de website gemaakt word met </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>HTML, CSS, PHP</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> en een beetje</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Javascript</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wil ik een </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>PDO-Database verbinding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> tegen </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>'charset encoding injections'</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> en</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> server-load</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>wil ik dat leden hun eigen</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Account</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> kunnen </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Sluiten</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">zou ik </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Modulaire</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> back-end</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> Functies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> willen zien, </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">wil ik dat leden </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Documenten</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> kunnen </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>Uploaden</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">, </t>
+    </r>
+  </si>
+  <si>
+    <t>zodat er op topics of verzoeken gestemd kunnen worden.</t>
+  </si>
+  <si>
+    <t>zodat alleen leden met de juiste bevoegdheid taken kunnen uitvoeren.</t>
+  </si>
+  <si>
+    <t>zodat ons ledenadministratie geautomatiseerd kan worden.</t>
+  </si>
+  <si>
+    <r>
       <t xml:space="preserve">zie ik graag een simpele </t>
     </r>
     <r>
@@ -242,7 +904,7 @@
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t>Admin Interface</t>
+      <t>Interface</t>
     </r>
     <r>
       <rPr>
@@ -256,669 +918,7 @@
     </r>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">zie ik graag </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Leden </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>en</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">gegevens terug in een </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Informatie</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tabel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">wil ik in de </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Tabel</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> kunnen </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Filteren</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> op leden,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">wil ik een </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Homepage</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> voor onze nieuwe website, </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">wil ik een </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Login en Registratiesysteem</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>,</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">wil ik dat </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Wachtwoorden</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> ge-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Hashed</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> en ge-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Salt</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> worden, </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">wil ik dat de website informatie kan </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">Valideren </t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>en</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Saneren</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">wil ik een </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Database</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> voor alle gegevens hebben, </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">wil ik dat de </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Website Toegankelijk</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> wordt op </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Diverse</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Apparaten</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">wil ik dat de website gemaakt word met </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>HTML, CSS, PHP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> en een beetje</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Javascript</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">wil ik een </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>PDO-Database verbinding</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> tegen </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>'charset encoding injections'</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> en</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> server-load</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>wil ik dat leden hun eigen</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Account</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> kunnen </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Sluiten</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">zou ik </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Modulaire</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> back-end</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> Functies</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> willen zien, </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">wil ik dat leden </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Documenten</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> kunnen </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Uploaden</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">, </t>
-    </r>
-  </si>
-  <si>
-    <t>zodat er op topics of verzoeken gestemd kunnen worden.</t>
-  </si>
-  <si>
-    <t>zodat alleen leden met de juiste bevoegdheid taken kunnen uitvoeren.</t>
-  </si>
-  <si>
-    <t>zodat leden hun account kunnen aanpassen of topics zien.</t>
-  </si>
-  <si>
-    <t>zodat ons ledenadministratie geautomatiseerd kan worden.</t>
+    <t>zodat leden zelf hun account kunnen aanpassen of sluiten.</t>
   </si>
 </sst>
 </file>
@@ -985,7 +985,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1001,12 +1001,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF002060"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-0.14999847407452621"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1082,7 +1076,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1123,27 +1117,21 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1463,7 +1451,7 @@
   <dimension ref="A1:N33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1478,16 +1466,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="17" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="22"/>
-      <c r="C1" s="22"/>
-      <c r="D1" s="22"/>
-      <c r="E1" s="22"/>
-      <c r="F1" s="22"/>
-      <c r="G1" s="22"/>
-      <c r="H1" s="22"/>
+      <c r="B1" s="17"/>
+      <c r="C1" s="17"/>
+      <c r="D1" s="17"/>
+      <c r="E1" s="17"/>
+      <c r="F1" s="17"/>
+      <c r="G1" s="17"/>
+      <c r="H1" s="17"/>
       <c r="I1" s="2"/>
       <c r="J1" s="2"/>
       <c r="K1" s="2"/>
@@ -1520,8 +1508,8 @@
       <c r="H2" s="4" t="s">
         <v>2</v>
       </c>
-      <c r="I2" s="19"/>
-      <c r="J2" s="19"/>
+      <c r="I2" s="6"/>
+      <c r="J2" s="6"/>
       <c r="K2" s="2"/>
       <c r="L2" s="2"/>
       <c r="M2" s="2"/>
@@ -1541,7 +1529,7 @@
         <v>38</v>
       </c>
       <c r="E3" s="5" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="F3" s="5" t="s">
         <v>7</v>
@@ -1550,8 +1538,8 @@
         <v>1</v>
       </c>
       <c r="H3" s="5"/>
-      <c r="I3" s="20"/>
-      <c r="J3" s="20"/>
+      <c r="I3" s="1"/>
+      <c r="J3" s="1"/>
       <c r="K3" s="2"/>
       <c r="L3" s="2"/>
       <c r="M3" s="2"/>
@@ -1571,7 +1559,7 @@
         <v>39</v>
       </c>
       <c r="E4" s="5" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F4" s="5" t="s">
         <v>7</v>
@@ -1580,8 +1568,8 @@
         <v>1</v>
       </c>
       <c r="H4" s="5"/>
-      <c r="I4" s="20"/>
-      <c r="J4" s="20"/>
+      <c r="I4" s="1"/>
+      <c r="J4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A5" s="3" t="s">
@@ -1597,7 +1585,7 @@
         <v>40</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F5" s="5" t="s">
         <v>7</v>
@@ -1606,8 +1594,8 @@
         <v>1</v>
       </c>
       <c r="H5" s="5"/>
-      <c r="I5" s="20"/>
-      <c r="J5" s="20"/>
+      <c r="I5" s="1"/>
+      <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A6" s="3" t="s">
@@ -1620,7 +1608,7 @@
         <v>18</v>
       </c>
       <c r="D6" s="11" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="E6" s="5" t="s">
         <v>19</v>
@@ -1632,8 +1620,8 @@
         <v>1</v>
       </c>
       <c r="H6" s="5"/>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
+      <c r="I6" s="1"/>
+      <c r="J6" s="1"/>
     </row>
     <row r="7" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A7" s="3" t="s">
@@ -1646,7 +1634,7 @@
         <v>18</v>
       </c>
       <c r="D7" s="11" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E7" s="5" t="s">
         <v>29</v>
@@ -1658,8 +1646,8 @@
         <v>1</v>
       </c>
       <c r="H7" s="5"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
+      <c r="I7" s="1"/>
+      <c r="J7" s="1"/>
     </row>
     <row r="8" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A8" s="3" t="s">
@@ -1672,20 +1660,20 @@
         <v>18</v>
       </c>
       <c r="D8" s="11" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E8" s="5" t="s">
         <v>30</v>
       </c>
       <c r="F8" s="5" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G8" s="5">
         <v>1</v>
       </c>
       <c r="H8" s="5"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
+      <c r="I8" s="1"/>
+      <c r="J8" s="1"/>
     </row>
     <row r="9" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A9" s="3" t="s">
@@ -1698,7 +1686,7 @@
         <v>18</v>
       </c>
       <c r="D9" s="11" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E9" s="5" t="s">
         <v>20</v>
@@ -1710,8 +1698,8 @@
         <v>1</v>
       </c>
       <c r="H9" s="5"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20"/>
+      <c r="I9" s="1"/>
+      <c r="J9" s="1"/>
     </row>
     <row r="10" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A10" s="3" t="s">
@@ -1727,7 +1715,7 @@
         <v>31</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>11</v>
@@ -1736,8 +1724,8 @@
         <v>1</v>
       </c>
       <c r="H10" s="5"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
     </row>
     <row r="11" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A11" s="3"/>
@@ -1748,8 +1736,8 @@
       <c r="F11" s="5"/>
       <c r="G11" s="5"/>
       <c r="H11" s="5"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
+      <c r="I11" s="1"/>
+      <c r="J11" s="1"/>
     </row>
     <row r="12" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
@@ -1762,7 +1750,7 @@
         <v>32</v>
       </c>
       <c r="D12" s="11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E12" s="5" t="s">
         <v>21</v>
@@ -1774,8 +1762,8 @@
         <v>1</v>
       </c>
       <c r="H12" s="5"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
+      <c r="I12" s="1"/>
+      <c r="J12" s="1"/>
     </row>
     <row r="13" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A13" s="3" t="s">
@@ -1788,7 +1776,7 @@
         <v>32</v>
       </c>
       <c r="D13" s="11" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="E13" s="5" t="s">
         <v>33</v>
@@ -1800,8 +1788,8 @@
         <v>1</v>
       </c>
       <c r="H13" s="5"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
+      <c r="I13" s="1"/>
+      <c r="J13" s="1"/>
     </row>
     <row r="14" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A14" s="3" t="s">
@@ -1814,7 +1802,7 @@
         <v>32</v>
       </c>
       <c r="D14" s="11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E14" s="5" t="s">
         <v>22</v>
@@ -1826,8 +1814,8 @@
         <v>1</v>
       </c>
       <c r="H14" s="5"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20"/>
+      <c r="I14" s="1"/>
+      <c r="J14" s="1"/>
     </row>
     <row r="15" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A15" s="3" t="s">
@@ -1840,7 +1828,7 @@
         <v>32</v>
       </c>
       <c r="D15" s="11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="E15" s="5" t="s">
         <v>23</v>
@@ -1852,8 +1840,8 @@
         <v>1</v>
       </c>
       <c r="H15" s="5"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
+      <c r="I15" s="1"/>
+      <c r="J15" s="1"/>
     </row>
     <row r="16" spans="1:14" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A16" s="3" t="s">
@@ -1866,7 +1854,7 @@
         <v>36</v>
       </c>
       <c r="D16" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E16" s="5" t="s">
         <v>24</v>
@@ -1878,34 +1866,34 @@
         <v>1</v>
       </c>
       <c r="H16" s="5"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
+      <c r="I16" s="1"/>
+      <c r="J16" s="1"/>
     </row>
     <row r="17" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="A17" s="14" t="s">
+      <c r="A17" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="18">
         <v>15</v>
       </c>
-      <c r="C17" s="16" t="s">
+      <c r="C17" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="D17" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="E17" s="16" t="s">
+      <c r="D17" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="E17" s="19" t="s">
         <v>25</v>
       </c>
-      <c r="F17" s="16" t="s">
+      <c r="F17" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="G17" s="16">
+      <c r="G17" s="19">
         <v>1</v>
       </c>
       <c r="H17" s="5"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
     </row>
     <row r="18" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
@@ -1918,7 +1906,7 @@
         <v>37</v>
       </c>
       <c r="D18" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E18" s="5" t="s">
         <v>35</v>
@@ -1930,8 +1918,8 @@
         <v>1</v>
       </c>
       <c r="H18" s="5"/>
-      <c r="I18" s="20"/>
-      <c r="J18" s="20"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
     </row>
     <row r="19" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
@@ -1944,7 +1932,7 @@
         <v>37</v>
       </c>
       <c r="D19" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E19" s="5" t="s">
         <v>26</v>
@@ -1956,8 +1944,8 @@
         <v>1</v>
       </c>
       <c r="H19" s="5"/>
-      <c r="I19" s="20"/>
-      <c r="J19" s="20"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
     </row>
     <row r="20" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A20" s="9" t="s">
@@ -1970,7 +1958,7 @@
         <v>37</v>
       </c>
       <c r="D20" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E20" s="5" t="s">
         <v>27</v>
@@ -1982,8 +1970,8 @@
         <v>1</v>
       </c>
       <c r="H20" s="5"/>
-      <c r="I20" s="20"/>
-      <c r="J20" s="20"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
     </row>
     <row r="21" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A21" s="3" t="s">
@@ -1996,7 +1984,7 @@
         <v>34</v>
       </c>
       <c r="D21" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E21" s="5" t="s">
         <v>28</v>
@@ -2008,8 +1996,8 @@
         <v>1</v>
       </c>
       <c r="H21" s="5"/>
-      <c r="I21" s="20"/>
-      <c r="J21" s="20"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
     </row>
     <row r="22" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A22" s="3"/>
@@ -2019,25 +2007,25 @@
       <c r="E22" s="5"/>
       <c r="F22" s="5"/>
       <c r="G22" s="5"/>
-      <c r="H22" s="21"/>
+      <c r="H22" s="14"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="C23" s="17"/>
-      <c r="D23" s="17"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
     </row>
     <row r="24" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A24" s="6"/>
       <c r="B24" s="6"/>
-      <c r="C24" s="18"/>
-      <c r="D24" s="18"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="15"/>
       <c r="E24" s="1"/>
       <c r="F24" s="6"/>
     </row>
     <row r="25" spans="1:10" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A25" s="6"/>
       <c r="B25" s="6"/>
-      <c r="C25" s="18"/>
-      <c r="D25" s="18"/>
+      <c r="C25" s="15"/>
+      <c r="D25" s="15"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1"/>
     </row>
